--- a/principal/src/main/resources/Templates/CDR-2024.xlsx
+++ b/principal/src/main/resources/Templates/CDR-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnayo\Desktop\Capstone Project\princi-pal-backend-springboot\principal\src\main\resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAE87BB-1194-4D56-B9D6-7A0BB49D3EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE01151-8020-4F69-9C4B-6BDFD6376CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="540" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2097,6 +2097,156 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2124,12 +2274,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2168,150 +2312,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2635,8 +2635,8 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="62" zoomScaleNormal="99" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="62" zoomScaleNormal="99" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,23 +2670,23 @@
       <c r="K1" s="170"/>
       <c r="L1" s="170"/>
       <c r="M1" s="170"/>
-      <c r="N1" s="254" t="s">
+      <c r="N1" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="254"/>
-      <c r="P1" s="255"/>
+      <c r="O1" s="242"/>
+      <c r="P1" s="243"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="169"/>
       <c r="B2" s="167"/>
-      <c r="C2" s="230" t="s">
+      <c r="C2" s="280" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
       <c r="I2" s="168"/>
       <c r="J2" s="167"/>
       <c r="K2" s="167"/>
@@ -2699,8 +2699,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="231"/>
-      <c r="B3" s="232"/>
+      <c r="A3" s="281"/>
+      <c r="B3" s="282"/>
       <c r="C3" s="165"/>
       <c r="D3" s="165"/>
       <c r="E3" s="164"/>
@@ -2712,15 +2712,15 @@
       <c r="K3" s="164"/>
       <c r="L3" s="164"/>
       <c r="M3" s="164"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="284"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="285" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="236"/>
+      <c r="B4" s="286"/>
       <c r="C4" s="159"/>
       <c r="D4" s="159"/>
       <c r="E4" s="15"/>
@@ -2816,135 +2816,135 @@
       <c r="G8" s="153"/>
       <c r="H8" s="153"/>
       <c r="I8" s="153"/>
-      <c r="J8" s="245" t="s">
+      <c r="J8" s="293" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="245"/>
-      <c r="L8" s="245"/>
-      <c r="M8" s="245"/>
-      <c r="N8" s="245"/>
-      <c r="O8" s="245"/>
+      <c r="K8" s="293"/>
+      <c r="L8" s="293"/>
+      <c r="M8" s="293"/>
+      <c r="N8" s="293"/>
+      <c r="O8" s="293"/>
       <c r="P8" s="152"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="246" t="s">
+      <c r="A9" s="294" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="248" t="s">
+      <c r="B9" s="296" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="251" t="s">
+      <c r="C9" s="299" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="279" t="s">
+      <c r="D9" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="280"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="256" t="s">
+      <c r="E9" s="270"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="272"/>
+      <c r="H9" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="256"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="256"/>
-      <c r="L9" s="256"/>
-      <c r="M9" s="256"/>
-      <c r="N9" s="256"/>
-      <c r="O9" s="256"/>
-      <c r="P9" s="257"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="244"/>
+      <c r="M9" s="244"/>
+      <c r="N9" s="244"/>
+      <c r="O9" s="244"/>
+      <c r="P9" s="245"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="247"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="252"/>
-      <c r="D10" s="260">
+      <c r="A10" s="295"/>
+      <c r="B10" s="297"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="248">
         <v>-19901010</v>
       </c>
-      <c r="E10" s="261"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="283"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="258"/>
-      <c r="J10" s="258"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="258"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="258"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="259"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
+      <c r="M10" s="246"/>
+      <c r="N10" s="246"/>
+      <c r="O10" s="246"/>
+      <c r="P10" s="247"/>
     </row>
     <row r="11" spans="1:16" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="247"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="263" t="s">
+      <c r="A11" s="295"/>
+      <c r="B11" s="297"/>
+      <c r="C11" s="300"/>
+      <c r="D11" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="264"/>
-      <c r="F11" s="265"/>
-      <c r="G11" s="266"/>
-      <c r="H11" s="268" t="s">
+      <c r="E11" s="252"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="256" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="239" t="s">
+      <c r="I11" s="265" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="277" t="s">
+      <c r="J11" s="267" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="237" t="s">
+      <c r="K11" s="287" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="239" t="s">
+      <c r="L11" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="241" t="s">
+      <c r="M11" s="289" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="243" t="s">
+      <c r="N11" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="244"/>
-      <c r="P11" s="270" t="s">
+      <c r="O11" s="292"/>
+      <c r="P11" s="258" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="247"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="284" t="s">
+      <c r="A12" s="295"/>
+      <c r="B12" s="297"/>
+      <c r="C12" s="300"/>
+      <c r="D12" s="274" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="286" t="s">
+      <c r="E12" s="276" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="288" t="s">
+      <c r="F12" s="278" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="267"/>
-      <c r="H12" s="269"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="278"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="240"/>
-      <c r="M12" s="242"/>
-      <c r="N12" s="273" t="s">
+      <c r="G12" s="255"/>
+      <c r="H12" s="257"/>
+      <c r="I12" s="266"/>
+      <c r="J12" s="268"/>
+      <c r="K12" s="288"/>
+      <c r="L12" s="266"/>
+      <c r="M12" s="290"/>
+      <c r="N12" s="261" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="275" t="s">
+      <c r="O12" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="271"/>
+      <c r="P12" s="259"/>
     </row>
     <row r="13" spans="1:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="247"/>
-      <c r="B13" s="250"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="289"/>
+      <c r="A13" s="295"/>
+      <c r="B13" s="298"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="279"/>
       <c r="G13" s="150"/>
       <c r="H13" s="3">
         <v>5020502001</v>
@@ -2964,9 +2964,9 @@
       <c r="M13" s="40">
         <v>5021304002</v>
       </c>
-      <c r="N13" s="274"/>
-      <c r="O13" s="276"/>
-      <c r="P13" s="272"/>
+      <c r="N13" s="262"/>
+      <c r="O13" s="264"/>
+      <c r="P13" s="260"/>
     </row>
     <row r="14" spans="1:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="149"/>
@@ -4075,7 +4075,7 @@
       <c r="N73" s="78"/>
       <c r="O73" s="78"/>
       <c r="P73" s="77">
-        <f>SUM(P28:P72)</f>
+        <f>SUM(P17:P72)</f>
         <v>0</v>
       </c>
     </row>
@@ -4370,30 +4370,30 @@
       <c r="K86" s="19"/>
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
-      <c r="N86" s="292" t="s">
+      <c r="N86" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="O86" s="293"/>
+      <c r="O86" s="233"/>
       <c r="P86" s="18">
         <f>SUM(P79:P85)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="294" t="s">
+      <c r="A87" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="295"/>
-      <c r="C87" s="295"/>
+      <c r="B87" s="235"/>
+      <c r="C87" s="235"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
-      <c r="I87" s="296" t="s">
+      <c r="I87" s="236" t="s">
         <v>8</v>
       </c>
-      <c r="J87" s="296"/>
+      <c r="J87" s="236"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
@@ -4402,82 +4402,85 @@
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:18" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A88" s="297" t="s">
+      <c r="A88" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="298"/>
-      <c r="C88" s="298"/>
+      <c r="B88" s="238"/>
+      <c r="C88" s="238"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
-      <c r="J88" s="299" t="s">
+      <c r="J88" s="239" t="s">
         <v>7</v>
       </c>
-      <c r="K88" s="299"/>
-      <c r="L88" s="299"/>
-      <c r="M88" s="299"/>
+      <c r="K88" s="239"/>
+      <c r="L88" s="239"/>
+      <c r="M88" s="239"/>
       <c r="N88" s="14"/>
       <c r="O88" s="13"/>
       <c r="P88" s="10"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="300" t="s">
+      <c r="A89" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="301"/>
-      <c r="C89" s="301"/>
+      <c r="B89" s="241"/>
+      <c r="C89" s="241"/>
       <c r="D89" s="12"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
-      <c r="J89" s="301" t="s">
+      <c r="J89" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="K89" s="301"/>
-      <c r="L89" s="301"/>
-      <c r="M89" s="301"/>
+      <c r="K89" s="241"/>
+      <c r="L89" s="241"/>
+      <c r="M89" s="241"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="10"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="290" t="s">
+      <c r="A90" s="230" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="291"/>
-      <c r="C90" s="291"/>
+      <c r="B90" s="231"/>
+      <c r="C90" s="231"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="291" t="s">
+      <c r="H90" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="291"/>
-      <c r="J90" s="291"/>
-      <c r="K90" s="291"/>
-      <c r="L90" s="291"/>
-      <c r="M90" s="291"/>
+      <c r="I90" s="231"/>
+      <c r="J90" s="231"/>
+      <c r="K90" s="231"/>
+      <c r="L90" s="231"/>
+      <c r="M90" s="231"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="H90:M90"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="H9:P10"/>
     <mergeCell ref="D10:F10"/>
@@ -4494,18 +4497,15 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="H90:M90"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="J89:M89"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.59055118110236227" top="0.39370078740157483" bottom="0.12" header="0.31496062992125984" footer="1.32"/>

--- a/principal/src/main/resources/Templates/CDR-2024.xlsx
+++ b/principal/src/main/resources/Templates/CDR-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnayo\Desktop\Capstone Project\princi-pal-backend-springboot\principal\src\main\resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE01151-8020-4F69-9C4B-6BDFD6376CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CA986E-653B-4F1F-9E22-3DFF2DF353D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="540" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Signature over Printed Name</t>
   </si>
@@ -276,6 +276,9 @@
   <si>
     <t>R &amp; M -School Buildings</t>
   </si>
+  <si>
+    <t>R &amp; M - School Buildings</t>
+  </si>
 </sst>
 </file>
 
@@ -286,7 +289,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,12 +306,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -564,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1151,17 +1148,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1179,21 +1165,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1474,236 +1445,225 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1719,10 +1679,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,7 +1694,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1743,211 +1703,204 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="59" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1956,26 +1909,23 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2002,22 +1952,22 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2029,288 +1979,282 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2635,8 +2579,8 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="62" zoomScaleNormal="99" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="62" zoomScaleNormal="99" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,295 +2601,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="174"/>
-      <c r="B1" s="173"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="242" t="s">
+      <c r="A1" s="166"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="231" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="242"/>
-      <c r="P1" s="243"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="232"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="280" t="s">
+      <c r="A2" s="161"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="269" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="166" t="s">
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="158" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="281"/>
-      <c r="B3" s="282"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="283"/>
-      <c r="O3" s="283"/>
-      <c r="P3" s="284"/>
+      <c r="A3" s="270"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="272"/>
+      <c r="O3" s="272"/>
+      <c r="P3" s="273"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="274" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="286"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
+      <c r="B4" s="275"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="162" t="s">
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="161"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="153"/>
     </row>
     <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="162" t="s">
+      <c r="J5" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="161"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="153"/>
     </row>
     <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="162" t="s">
+      <c r="J6" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="161"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
+      <c r="O6" s="154"/>
+      <c r="P6" s="153"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="158" t="s">
+      <c r="J7" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="158"/>
-      <c r="P7" s="157"/>
-    </row>
-    <row r="8" spans="1:16" s="151" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="156" t="s">
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="149"/>
+    </row>
+    <row r="8" spans="1:16" s="143" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="293" t="s">
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="282" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="293"/>
-      <c r="L8" s="293"/>
-      <c r="M8" s="293"/>
-      <c r="N8" s="293"/>
-      <c r="O8" s="293"/>
-      <c r="P8" s="152"/>
+      <c r="K8" s="282"/>
+      <c r="L8" s="282"/>
+      <c r="M8" s="282"/>
+      <c r="N8" s="282"/>
+      <c r="O8" s="282"/>
+      <c r="P8" s="144"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="294" t="s">
+      <c r="A9" s="283" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="296" t="s">
+      <c r="B9" s="285" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="299" t="s">
+      <c r="C9" s="288" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="269" t="s">
+      <c r="D9" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="270"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="272"/>
-      <c r="H9" s="244" t="s">
+      <c r="E9" s="259"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="261"/>
+      <c r="H9" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="245"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="233"/>
+      <c r="K9" s="233"/>
+      <c r="L9" s="233"/>
+      <c r="M9" s="233"/>
+      <c r="N9" s="233"/>
+      <c r="O9" s="233"/>
+      <c r="P9" s="234"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="295"/>
-      <c r="B10" s="297"/>
-      <c r="C10" s="300"/>
-      <c r="D10" s="248">
+      <c r="A10" s="284"/>
+      <c r="B10" s="286"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="237">
         <v>-19901010</v>
       </c>
-      <c r="E10" s="249"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="246"/>
-      <c r="N10" s="246"/>
-      <c r="O10" s="246"/>
-      <c r="P10" s="247"/>
+      <c r="E10" s="238"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="235"/>
+      <c r="I10" s="235"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="235"/>
+      <c r="L10" s="235"/>
+      <c r="M10" s="235"/>
+      <c r="N10" s="235"/>
+      <c r="O10" s="235"/>
+      <c r="P10" s="236"/>
     </row>
     <row r="11" spans="1:16" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="295"/>
-      <c r="B11" s="297"/>
-      <c r="C11" s="300"/>
-      <c r="D11" s="251" t="s">
+      <c r="A11" s="284"/>
+      <c r="B11" s="286"/>
+      <c r="C11" s="289"/>
+      <c r="D11" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="252"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="256" t="s">
+      <c r="E11" s="241"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="265" t="s">
+      <c r="I11" s="254" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="267" t="s">
+      <c r="J11" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="287" t="s">
+      <c r="K11" s="276" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="265" t="s">
+      <c r="L11" s="254" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="289" t="s">
+      <c r="M11" s="278" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="291" t="s">
+      <c r="N11" s="280" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="292"/>
-      <c r="P11" s="258" t="s">
+      <c r="O11" s="281"/>
+      <c r="P11" s="247" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="295"/>
-      <c r="B12" s="297"/>
-      <c r="C12" s="300"/>
-      <c r="D12" s="274" t="s">
+      <c r="A12" s="284"/>
+      <c r="B12" s="286"/>
+      <c r="C12" s="289"/>
+      <c r="D12" s="263" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="276" t="s">
+      <c r="E12" s="265" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="278" t="s">
+      <c r="F12" s="267" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="255"/>
-      <c r="H12" s="257"/>
-      <c r="I12" s="266"/>
-      <c r="J12" s="268"/>
-      <c r="K12" s="288"/>
-      <c r="L12" s="266"/>
-      <c r="M12" s="290"/>
-      <c r="N12" s="261" t="s">
+      <c r="G12" s="244"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="255"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="277"/>
+      <c r="L12" s="255"/>
+      <c r="M12" s="279"/>
+      <c r="N12" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="263" t="s">
+      <c r="O12" s="252" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="259"/>
+      <c r="P12" s="248"/>
     </row>
     <row r="13" spans="1:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="295"/>
-      <c r="B13" s="298"/>
-      <c r="C13" s="301"/>
-      <c r="D13" s="275"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="150"/>
+      <c r="A13" s="284"/>
+      <c r="B13" s="287"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="142"/>
       <c r="H13" s="3">
         <v>5020502001</v>
       </c>
@@ -2961,1161 +2905,1164 @@
       <c r="L13" s="4">
         <v>5020201000</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="38">
         <v>5021304002</v>
       </c>
-      <c r="N13" s="262"/>
-      <c r="O13" s="264"/>
-      <c r="P13" s="260"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="253"/>
+      <c r="P13" s="249"/>
     </row>
     <row r="14" spans="1:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="149"/>
-      <c r="B14" s="148" t="s">
+      <c r="A14" s="141"/>
+      <c r="B14" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="148" t="s">
+      <c r="C14" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="147">
+      <c r="D14" s="139">
         <v>43750</v>
       </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="145">
+      <c r="E14" s="138"/>
+      <c r="F14" s="137">
         <f>D14</f>
         <v>43750</v>
       </c>
-      <c r="G14" s="144"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="139" t="s">
+      <c r="G14" s="136"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="131" t="s">
         <v>11</v>
       </c>
       <c r="O14" s="1">
         <v>5020399000</v>
       </c>
-      <c r="P14" s="138"/>
+      <c r="P14" s="130"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="137"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="124"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="116"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="88"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="83"/>
     </row>
     <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="101"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="88"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="83"/>
     </row>
     <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="101"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="88"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="83"/>
     </row>
     <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="101"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="88"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="83"/>
     </row>
     <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="101"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="88"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="83"/>
     </row>
     <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="101"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="88"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="83"/>
     </row>
     <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="101"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="88"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="83"/>
     </row>
     <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="101"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="88"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="83"/>
     </row>
     <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="101"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="88"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="83"/>
     </row>
     <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="88"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="83"/>
     </row>
     <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="88"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="83"/>
     </row>
     <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="101"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="88"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="88"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="101"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="88"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="83"/>
     </row>
     <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="101"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="88"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="101"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="88"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="83"/>
     </row>
     <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="101"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="88"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="101"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="88"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="101"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="88"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="83"/>
     </row>
     <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="101"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="88"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="101"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="88"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="101"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="88"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="83"/>
     </row>
     <row r="38" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="101"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="88"/>
+      <c r="A38" s="96"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="101"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="88"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="101"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="108"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="107"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="97"/>
-      <c r="O40" s="94"/>
-      <c r="P40" s="88"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="101"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="88"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="89"/>
+      <c r="P41" s="83"/>
     </row>
     <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="93"/>
+      <c r="A42" s="88"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="88"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="93"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="94"/>
-      <c r="P43" s="97"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="92"/>
     </row>
     <row r="44" spans="1:16" ht="0.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="93"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="229"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="97"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="218"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="92"/>
     </row>
     <row r="45" spans="1:16" ht="0.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="93"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="97"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="92"/>
     </row>
     <row r="46" spans="1:16" ht="0.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="93"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="94"/>
-      <c r="P46" s="97"/>
-    </row>
-    <row r="47" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="93"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="92"/>
+    </row>
+    <row r="47" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="88"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="226"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="228"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="97"/>
-    </row>
-    <row r="48" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="101"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="226"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="227"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="94"/>
-      <c r="P48" s="97"/>
-    </row>
-    <row r="49" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="93"/>
-      <c r="B49" s="225"/>
-      <c r="C49" s="226"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="95"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="94"/>
-      <c r="P49" s="97"/>
-    </row>
-    <row r="50" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="93"/>
-      <c r="B50" s="220"/>
-      <c r="C50" s="226"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="95"/>
-      <c r="N50" s="97"/>
-      <c r="O50" s="94"/>
-      <c r="P50" s="97"/>
-    </row>
-    <row r="51" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="93"/>
-      <c r="B51" s="220"/>
-      <c r="C51" s="224"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="95"/>
-      <c r="N51" s="97"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="97"/>
-    </row>
-    <row r="52" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="93"/>
-      <c r="B52" s="225"/>
-      <c r="C52" s="224"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="97"/>
-    </row>
-    <row r="53" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="93"/>
-      <c r="B53" s="220"/>
-      <c r="C53" s="224"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="95"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="94"/>
-      <c r="P53" s="88"/>
-    </row>
-    <row r="54" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="93"/>
-      <c r="B54" s="220"/>
-      <c r="C54" s="218"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="95"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="88"/>
-    </row>
-    <row r="55" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="93"/>
-      <c r="B55" s="220"/>
-      <c r="C55" s="219"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="223"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="97"/>
-      <c r="O55" s="94"/>
-      <c r="P55" s="88"/>
-    </row>
-    <row r="56" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="93"/>
-      <c r="B56" s="220"/>
-      <c r="C56" s="219"/>
-      <c r="D56" s="98"/>
-      <c r="E56" s="222"/>
-      <c r="F56" s="221"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="95"/>
-      <c r="N56" s="97"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="88"/>
-    </row>
-    <row r="57" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="93"/>
-      <c r="B57" s="220"/>
-      <c r="C57" s="219"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="95"/>
-      <c r="N57" s="97"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="88"/>
-    </row>
-    <row r="58" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="93"/>
-      <c r="B58" s="212"/>
-      <c r="C58" s="218"/>
-      <c r="D58" s="217"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="89"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="95"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="94"/>
-      <c r="P58" s="88"/>
-    </row>
-    <row r="59" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="93"/>
-      <c r="B59" s="216"/>
-      <c r="C59" s="211"/>
-      <c r="D59" s="214"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="90"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="95"/>
-      <c r="N59" s="97"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="88"/>
-    </row>
-    <row r="60" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="93"/>
-      <c r="B60" s="212"/>
-      <c r="C60" s="211"/>
-      <c r="D60" s="210"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="90"/>
-      <c r="J60" s="89"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="95"/>
-      <c r="N60" s="97"/>
-      <c r="O60" s="94"/>
-      <c r="P60" s="88"/>
-    </row>
-    <row r="61" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="93"/>
-      <c r="B61" s="212"/>
-      <c r="C61" s="211"/>
-      <c r="D61" s="210"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="95"/>
-      <c r="N61" s="97"/>
-      <c r="O61" s="94"/>
-      <c r="P61" s="88"/>
-    </row>
-    <row r="62" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="93"/>
-      <c r="B62" s="212"/>
-      <c r="C62" s="211"/>
-      <c r="D62" s="210"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="89"/>
-      <c r="K62" s="89"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="95"/>
-      <c r="N62" s="97"/>
-      <c r="O62" s="94"/>
-      <c r="P62" s="88"/>
-    </row>
-    <row r="63" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="93"/>
-      <c r="B63" s="212"/>
-      <c r="C63" s="211"/>
-      <c r="D63" s="210"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="91"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="95"/>
-      <c r="N63" s="97"/>
-      <c r="O63" s="94"/>
-      <c r="P63" s="88"/>
-    </row>
-    <row r="64" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="93"/>
-      <c r="B64" s="212"/>
-      <c r="C64" s="211"/>
-      <c r="D64" s="210"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="87"/>
-      <c r="H64" s="91"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="95"/>
-      <c r="N64" s="97"/>
-      <c r="O64" s="94"/>
-      <c r="P64" s="88"/>
-    </row>
-    <row r="65" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="93"/>
-      <c r="B65" s="215"/>
-      <c r="C65" s="211"/>
-      <c r="D65" s="210"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="95"/>
-      <c r="N65" s="97"/>
-      <c r="O65" s="94"/>
-      <c r="P65" s="88"/>
-    </row>
-    <row r="66" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="93"/>
-      <c r="B66" s="212"/>
-      <c r="C66" s="211"/>
-      <c r="D66" s="210"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="90"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="96"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="97"/>
-      <c r="O66" s="94"/>
-      <c r="P66" s="88"/>
-    </row>
-    <row r="67" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="93"/>
-      <c r="B67" s="212"/>
-      <c r="C67" s="211"/>
-      <c r="D67" s="210"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="87"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="90"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="95"/>
-      <c r="N67" s="97"/>
-      <c r="O67" s="94"/>
-      <c r="P67" s="88"/>
-    </row>
-    <row r="68" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="93"/>
-      <c r="B68" s="212"/>
-      <c r="C68" s="211"/>
-      <c r="D68" s="214"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="96"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="213"/>
-      <c r="O68" s="94"/>
-      <c r="P68" s="88"/>
-    </row>
-    <row r="69" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="93"/>
-      <c r="B69" s="212"/>
-      <c r="C69" s="211"/>
-      <c r="D69" s="210"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="90"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="209"/>
-      <c r="N69" s="208"/>
-      <c r="O69" s="207"/>
-      <c r="P69" s="88"/>
-    </row>
-    <row r="70" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="202"/>
-      <c r="B70" s="201"/>
-      <c r="C70" s="206"/>
-      <c r="D70" s="199"/>
-      <c r="E70" s="198"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="87"/>
-      <c r="H70" s="196"/>
-      <c r="I70" s="195"/>
-      <c r="J70" s="193"/>
-      <c r="K70" s="194"/>
-      <c r="L70" s="193"/>
-      <c r="M70" s="192"/>
-      <c r="N70" s="205"/>
-      <c r="O70" s="204"/>
-      <c r="P70" s="203"/>
-    </row>
-    <row r="71" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="202"/>
-      <c r="B71" s="201"/>
-      <c r="C71" s="200"/>
-      <c r="D71" s="199"/>
-      <c r="E71" s="198"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="197"/>
-      <c r="H71" s="196"/>
-      <c r="I71" s="195"/>
-      <c r="J71" s="193"/>
-      <c r="K71" s="194"/>
-      <c r="L71" s="193"/>
-      <c r="M71" s="192"/>
-      <c r="N71" s="191"/>
-      <c r="O71" s="190"/>
-      <c r="P71" s="189"/>
+      <c r="C47" s="215"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="217"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="92"/>
+    </row>
+    <row r="48" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="96"/>
+      <c r="B48" s="211"/>
+      <c r="C48" s="215"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="91"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="92"/>
+    </row>
+    <row r="49" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="88"/>
+      <c r="B49" s="214"/>
+      <c r="C49" s="215"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="91"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="92"/>
+    </row>
+    <row r="50" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="88"/>
+      <c r="B50" s="211"/>
+      <c r="C50" s="215"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="92"/>
+    </row>
+    <row r="51" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="88"/>
+      <c r="B51" s="211"/>
+      <c r="C51" s="213"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="92"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="92"/>
+    </row>
+    <row r="52" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="88"/>
+      <c r="B52" s="214"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="91"/>
+      <c r="M52" s="90"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="92"/>
+    </row>
+    <row r="53" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="88"/>
+      <c r="B53" s="211"/>
+      <c r="C53" s="213"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="92"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="83"/>
+    </row>
+    <row r="54" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="88"/>
+      <c r="B54" s="211"/>
+      <c r="C54" s="209"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="92"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="83"/>
+    </row>
+    <row r="55" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="88"/>
+      <c r="B55" s="211"/>
+      <c r="C55" s="210"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="92"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="83"/>
+    </row>
+    <row r="56" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="88"/>
+      <c r="B56" s="211"/>
+      <c r="C56" s="210"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="212"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="92"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="83"/>
+    </row>
+    <row r="57" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="88"/>
+      <c r="B57" s="211"/>
+      <c r="C57" s="210"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="92"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="83"/>
+    </row>
+    <row r="58" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="88"/>
+      <c r="B58" s="203"/>
+      <c r="C58" s="209"/>
+      <c r="D58" s="208"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="92"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="83"/>
+    </row>
+    <row r="59" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="88"/>
+      <c r="B59" s="207"/>
+      <c r="C59" s="202"/>
+      <c r="D59" s="205"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="84"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="91"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="92"/>
+      <c r="O59" s="89"/>
+      <c r="P59" s="83"/>
+    </row>
+    <row r="60" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="88"/>
+      <c r="B60" s="203"/>
+      <c r="C60" s="202"/>
+      <c r="D60" s="201"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="84"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="83"/>
+    </row>
+    <row r="61" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="88"/>
+      <c r="B61" s="203"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="201"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="92"/>
+      <c r="O61" s="89"/>
+      <c r="P61" s="83"/>
+    </row>
+    <row r="62" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="88"/>
+      <c r="B62" s="203"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="201"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="84"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="92"/>
+      <c r="O62" s="89"/>
+      <c r="P62" s="83"/>
+    </row>
+    <row r="63" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="88"/>
+      <c r="B63" s="203"/>
+      <c r="C63" s="202"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="92"/>
+      <c r="O63" s="89"/>
+      <c r="P63" s="83"/>
+    </row>
+    <row r="64" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="88"/>
+      <c r="B64" s="203"/>
+      <c r="C64" s="202"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="91"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="92"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="83"/>
+    </row>
+    <row r="65" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="88"/>
+      <c r="B65" s="206"/>
+      <c r="C65" s="202"/>
+      <c r="D65" s="201"/>
+      <c r="E65" s="87"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="92"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="83"/>
+    </row>
+    <row r="66" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="88"/>
+      <c r="B66" s="203"/>
+      <c r="C66" s="202"/>
+      <c r="D66" s="201"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="84"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="90"/>
+      <c r="N66" s="92"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="83"/>
+    </row>
+    <row r="67" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="88"/>
+      <c r="B67" s="203"/>
+      <c r="C67" s="202"/>
+      <c r="D67" s="201"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="84"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="92"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="83"/>
+    </row>
+    <row r="68" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="88"/>
+      <c r="B68" s="203"/>
+      <c r="C68" s="202"/>
+      <c r="D68" s="205"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="85"/>
+      <c r="J68" s="84"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="91"/>
+      <c r="M68" s="90"/>
+      <c r="N68" s="204"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="83"/>
+    </row>
+    <row r="69" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="88"/>
+      <c r="B69" s="203"/>
+      <c r="C69" s="202"/>
+      <c r="D69" s="201"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="82"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="200"/>
+      <c r="N69" s="199"/>
+      <c r="O69" s="198"/>
+      <c r="P69" s="83"/>
+    </row>
+    <row r="70" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="193"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="197"/>
+      <c r="D70" s="190"/>
+      <c r="E70" s="189"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="82"/>
+      <c r="H70" s="187"/>
+      <c r="I70" s="186"/>
+      <c r="J70" s="184"/>
+      <c r="K70" s="185"/>
+      <c r="L70" s="184"/>
+      <c r="M70" s="183"/>
+      <c r="N70" s="196"/>
+      <c r="O70" s="195"/>
+      <c r="P70" s="194"/>
+    </row>
+    <row r="71" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="193"/>
+      <c r="B71" s="192"/>
+      <c r="C71" s="191"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="189"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="188"/>
+      <c r="H71" s="187"/>
+      <c r="I71" s="186"/>
+      <c r="J71" s="184"/>
+      <c r="K71" s="185"/>
+      <c r="L71" s="184"/>
+      <c r="M71" s="183"/>
+      <c r="N71" s="182"/>
+      <c r="O71" s="181"/>
+      <c r="P71" s="180"/>
     </row>
     <row r="72" spans="1:16" ht="0.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="188"/>
-      <c r="B72" s="187"/>
-      <c r="C72" s="186"/>
-      <c r="D72" s="185"/>
-      <c r="E72" s="184"/>
-      <c r="F72" s="183"/>
-      <c r="G72" s="182"/>
-      <c r="H72" s="181"/>
-      <c r="I72" s="180"/>
-      <c r="J72" s="179"/>
-      <c r="K72" s="178"/>
-      <c r="L72" s="179"/>
-      <c r="M72" s="178"/>
-      <c r="N72" s="177"/>
-      <c r="O72" s="176"/>
-      <c r="P72" s="175"/>
+      <c r="A72" s="179"/>
+      <c r="B72" s="178"/>
+      <c r="C72" s="177"/>
+      <c r="D72" s="176"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="174"/>
+      <c r="H72" s="173"/>
+      <c r="I72" s="172"/>
+      <c r="J72" s="171"/>
+      <c r="K72" s="170"/>
+      <c r="L72" s="171"/>
+      <c r="M72" s="170"/>
+      <c r="N72" s="169"/>
+      <c r="O72" s="168"/>
+      <c r="P72" s="167"/>
     </row>
     <row r="73" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="85"/>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="81">
+      <c r="A73" s="81"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="78">
         <f>SUM(H17:H72)</f>
         <v>0</v>
       </c>
-      <c r="I73" s="81">
+      <c r="I73" s="78">
         <f>SUM(I17:I72)</f>
         <v>0</v>
       </c>
-      <c r="J73" s="81">
+      <c r="J73" s="78">
         <f>SUM(J17:J72)</f>
         <v>0</v>
       </c>
-      <c r="K73" s="80">
-        <f>SUM(K16:K72)</f>
+      <c r="K73" s="77">
+        <f>SUM(K17:K72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="80">
-        <f>SUM(L21:L72)</f>
+      <c r="L73" s="77">
+        <f>SUM(L17:L72)</f>
         <v>0</v>
       </c>
-      <c r="M73" s="79"/>
-      <c r="N73" s="78"/>
-      <c r="O73" s="78"/>
-      <c r="P73" s="77">
+      <c r="M73" s="77">
+        <f>SUM(M17:M72)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="76"/>
+      <c r="O73" s="76"/>
+      <c r="P73" s="75">
         <f>SUM(P17:P72)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="2.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="76"/>
-      <c r="B74" s="75"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="72"/>
-      <c r="J74" s="72"/>
-      <c r="K74" s="71"/>
-      <c r="L74" s="71"/>
-      <c r="M74" s="71"/>
-      <c r="N74" s="70"/>
-      <c r="O74" s="70"/>
-      <c r="P74" s="69"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="67"/>
     </row>
     <row r="75" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="68"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="61" t="s">
+      <c r="A75" s="66"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="O75" s="60"/>
-      <c r="P75" s="59">
+      <c r="O75" s="58"/>
+      <c r="P75" s="57">
         <f>H73+I73+J73+K73+L73+M73+P73</f>
         <v>0</v>
       </c>
@@ -4131,12 +4078,12 @@
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
       <c r="J76" s="28"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="54"/>
     </row>
     <row r="77" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="32"/>
@@ -4149,14 +4096,14 @@
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
       <c r="J77" s="28"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="55" t="s">
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="O77" s="54"/>
-      <c r="P77" s="53"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="51"/>
     </row>
     <row r="78" spans="1:16" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
@@ -4169,16 +4116,16 @@
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
       <c r="J78" s="28"/>
-      <c r="K78" s="52"/>
-      <c r="L78" s="52"/>
-      <c r="M78" s="52"/>
-      <c r="N78" s="51" t="s">
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="O78" s="50" t="s">
+      <c r="O78" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="P78" s="49" t="s">
+      <c r="P78" s="47" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4193,16 +4140,16 @@
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
       <c r="J79" s="28"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="48" t="s">
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="O79" s="47">
+      <c r="O79" s="45">
         <v>5020502001</v>
       </c>
-      <c r="P79" s="46">
+      <c r="P79" s="44">
         <f>H73</f>
         <v>0</v>
       </c>
@@ -4218,16 +4165,16 @@
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
       <c r="J80" s="28"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="45" t="s">
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="O80" s="40">
+      <c r="O80" s="38">
         <v>5020402000</v>
       </c>
-      <c r="P80" s="36">
+      <c r="P80" s="34">
         <f>I73</f>
         <v>0</v>
       </c>
@@ -4237,27 +4184,27 @@
       <c r="B81" s="31"/>
       <c r="C81" s="30"/>
       <c r="D81" s="29"/>
-      <c r="E81" s="44"/>
+      <c r="E81" s="42"/>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
       <c r="J81" s="28"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="42" t="s">
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O81" s="40">
+      <c r="O81" s="38">
         <v>5020503000</v>
       </c>
-      <c r="P81" s="36">
+      <c r="P81" s="34">
         <f>J73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="39" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" s="37" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="32"/>
       <c r="B82" s="31"/>
       <c r="C82" s="30"/>
@@ -4271,13 +4218,13 @@
       <c r="K82" s="28"/>
       <c r="L82" s="28"/>
       <c r="M82" s="28"/>
-      <c r="N82" s="41" t="s">
+      <c r="N82" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="O82" s="40">
+      <c r="O82" s="38">
         <v>5029904000</v>
       </c>
-      <c r="P82" s="36">
+      <c r="P82" s="34">
         <f>K73</f>
         <v>0</v>
       </c>
@@ -4296,13 +4243,13 @@
       <c r="K83" s="28"/>
       <c r="L83" s="28"/>
       <c r="M83" s="28"/>
-      <c r="N83" s="38" t="s">
+      <c r="N83" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O83" s="37">
+      <c r="O83" s="35">
         <v>5020201000</v>
       </c>
-      <c r="P83" s="36">
+      <c r="P83" s="34">
         <f>L73</f>
         <v>0</v>
       </c>
@@ -4321,8 +4268,12 @@
       <c r="K84" s="28"/>
       <c r="L84" s="28"/>
       <c r="M84" s="28"/>
-      <c r="N84" s="35"/>
-      <c r="O84" s="34"/>
+      <c r="N84" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="O84" s="35">
+        <v>5021304002</v>
+      </c>
       <c r="P84" s="33">
         <f>M73</f>
         <v>0</v>
@@ -4370,30 +4321,30 @@
       <c r="K86" s="19"/>
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
-      <c r="N86" s="232" t="s">
+      <c r="N86" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="O86" s="233"/>
+      <c r="O86" s="222"/>
       <c r="P86" s="18">
         <f>SUM(P79:P85)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="234" t="s">
+      <c r="A87" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="235"/>
-      <c r="C87" s="235"/>
+      <c r="B87" s="224"/>
+      <c r="C87" s="224"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
-      <c r="I87" s="236" t="s">
+      <c r="I87" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="J87" s="236"/>
+      <c r="J87" s="225"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
@@ -4402,67 +4353,67 @@
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:18" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A88" s="237" t="s">
+      <c r="A88" s="226" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="238"/>
-      <c r="C88" s="238"/>
+      <c r="B88" s="227"/>
+      <c r="C88" s="227"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
-      <c r="J88" s="239" t="s">
+      <c r="J88" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="K88" s="239"/>
-      <c r="L88" s="239"/>
-      <c r="M88" s="239"/>
+      <c r="K88" s="228"/>
+      <c r="L88" s="228"/>
+      <c r="M88" s="228"/>
       <c r="N88" s="14"/>
       <c r="O88" s="13"/>
       <c r="P88" s="10"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="240" t="s">
+      <c r="A89" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="241"/>
-      <c r="C89" s="241"/>
+      <c r="B89" s="230"/>
+      <c r="C89" s="230"/>
       <c r="D89" s="12"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
-      <c r="J89" s="241" t="s">
+      <c r="J89" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="K89" s="241"/>
-      <c r="L89" s="241"/>
-      <c r="M89" s="241"/>
+      <c r="K89" s="230"/>
+      <c r="L89" s="230"/>
+      <c r="M89" s="230"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="10"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="230" t="s">
+      <c r="A90" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="231"/>
-      <c r="C90" s="231"/>
+      <c r="B90" s="220"/>
+      <c r="C90" s="220"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="231" t="s">
+      <c r="H90" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="231"/>
-      <c r="J90" s="231"/>
-      <c r="K90" s="231"/>
-      <c r="L90" s="231"/>
-      <c r="M90" s="231"/>
+      <c r="I90" s="220"/>
+      <c r="J90" s="220"/>
+      <c r="K90" s="220"/>
+      <c r="L90" s="220"/>
+      <c r="M90" s="220"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="8"/>

--- a/principal/src/main/resources/Templates/CDR-2024.xlsx
+++ b/principal/src/main/resources/Templates/CDR-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnayo\Desktop\Capstone Project\princi-pal-backend-springboot\principal\src\main\resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CA986E-653B-4F1F-9E22-3DFF2DF353D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520DD111-E0D7-4201-B180-B604B464411F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="540" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT'23 (CDR)" sheetId="23" r:id="rId1"/>
@@ -561,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1192,21 +1192,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -1416,21 +1401,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1445,7 +1415,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1676,9 +1646,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1735,9 +1702,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1809,10 +1773,7 @@
     <xf numFmtId="164" fontId="30" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1830,7 +1791,7 @@
     <xf numFmtId="49" fontId="30" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1891,25 +1852,22 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1949,9 +1907,6 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2041,6 +1996,186 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2076,186 +2211,6 @@
     </xf>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2579,8 +2534,8 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="62" zoomScaleNormal="99" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C2" zoomScale="70" zoomScaleNormal="99" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,295 +2556,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="166"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="231" t="s">
+      <c r="A1" s="163"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="231"/>
-      <c r="P1" s="232"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="239"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="161"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="269" t="s">
+      <c r="A2" s="158"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="158" t="s">
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="155" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="270"/>
-      <c r="B3" s="271"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="272"/>
-      <c r="O3" s="272"/>
-      <c r="P3" s="273"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="218"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="274" t="s">
+      <c r="A4" s="219" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="275"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="154" t="s">
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="153"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="150"/>
     </row>
     <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="154" t="s">
+      <c r="J5" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="153"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="150"/>
     </row>
     <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="154" t="s">
+      <c r="J6" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="154"/>
-      <c r="P6" s="153"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="150"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="150" t="s">
+      <c r="J7" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="149"/>
-    </row>
-    <row r="8" spans="1:16" s="143" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="148" t="s">
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="146"/>
+    </row>
+    <row r="8" spans="1:16" s="140" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="282" t="s">
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="282"/>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="282"/>
-      <c r="O8" s="282"/>
-      <c r="P8" s="144"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="283" t="s">
+      <c r="K8" s="229"/>
+      <c r="L8" s="229"/>
+      <c r="M8" s="229"/>
+      <c r="N8" s="229"/>
+      <c r="O8" s="229"/>
+      <c r="P8" s="141"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="285" t="s">
+      <c r="B9" s="232" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="288" t="s">
+      <c r="C9" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="258" t="s">
+      <c r="D9" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="259"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="233" t="s">
+      <c r="E9" s="264"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="240" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="233"/>
-      <c r="J9" s="233"/>
-      <c r="K9" s="233"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="233"/>
-      <c r="N9" s="233"/>
-      <c r="O9" s="233"/>
-      <c r="P9" s="234"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="284"/>
-      <c r="B10" s="286"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="237">
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
+      <c r="L9" s="240"/>
+      <c r="M9" s="240"/>
+      <c r="N9" s="240"/>
+      <c r="O9" s="240"/>
+      <c r="P9" s="241"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="231"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="244">
         <v>-19901010</v>
       </c>
-      <c r="E10" s="238"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="235"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="235"/>
-      <c r="M10" s="235"/>
-      <c r="N10" s="235"/>
-      <c r="O10" s="235"/>
-      <c r="P10" s="236"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="242"/>
+      <c r="M10" s="242"/>
+      <c r="N10" s="242"/>
+      <c r="O10" s="242"/>
+      <c r="P10" s="243"/>
     </row>
     <row r="11" spans="1:16" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="284"/>
-      <c r="B11" s="286"/>
-      <c r="C11" s="289"/>
-      <c r="D11" s="240" t="s">
+      <c r="A11" s="231"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="241"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="243"/>
-      <c r="H11" s="245" t="s">
+      <c r="E11" s="248"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="254" t="s">
+      <c r="I11" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="256" t="s">
+      <c r="J11" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="276" t="s">
+      <c r="K11" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="254" t="s">
+      <c r="L11" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="278" t="s">
+      <c r="M11" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="280" t="s">
+      <c r="N11" s="227" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="281"/>
-      <c r="P11" s="247" t="s">
+      <c r="O11" s="228"/>
+      <c r="P11" s="254" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="284"/>
-      <c r="B12" s="286"/>
-      <c r="C12" s="289"/>
-      <c r="D12" s="263" t="s">
+      <c r="A12" s="231"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="265" t="s">
+      <c r="E12" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="267" t="s">
+      <c r="F12" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="244"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="257"/>
-      <c r="K12" s="277"/>
-      <c r="L12" s="255"/>
-      <c r="M12" s="279"/>
-      <c r="N12" s="250" t="s">
+      <c r="G12" s="251"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="222"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="252" t="s">
+      <c r="O12" s="259" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="248"/>
+      <c r="P12" s="255"/>
     </row>
     <row r="13" spans="1:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="284"/>
-      <c r="B13" s="287"/>
-      <c r="C13" s="290"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="268"/>
-      <c r="G13" s="142"/>
+      <c r="A13" s="231"/>
+      <c r="B13" s="234"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="273"/>
+      <c r="G13" s="139"/>
       <c r="H13" s="3">
         <v>5020502001</v>
       </c>
@@ -2908,1084 +2863,1084 @@
       <c r="M13" s="38">
         <v>5021304002</v>
       </c>
-      <c r="N13" s="251"/>
-      <c r="O13" s="253"/>
-      <c r="P13" s="249"/>
+      <c r="N13" s="258"/>
+      <c r="O13" s="260"/>
+      <c r="P13" s="256"/>
     </row>
     <row r="14" spans="1:16" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="141"/>
-      <c r="B14" s="140" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="139">
+      <c r="D14" s="136">
         <v>43750</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="137">
+      <c r="E14" s="135"/>
+      <c r="F14" s="134">
         <f>D14</f>
         <v>43750</v>
       </c>
-      <c r="G14" s="136"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="131" t="s">
+      <c r="G14" s="133"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="129" t="s">
         <v>11</v>
       </c>
       <c r="O14" s="1">
         <v>5020399000</v>
       </c>
-      <c r="P14" s="130"/>
+      <c r="P14" s="128"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="129"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="116"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="114"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="86"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="85"/>
       <c r="I16" s="85"/>
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="88"/>
       <c r="P16" s="83"/>
     </row>
     <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="86"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="85"/>
       <c r="I17" s="85"/>
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="89"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="88"/>
       <c r="P17" s="83"/>
     </row>
     <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="86"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="85"/>
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="89"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="88"/>
       <c r="P18" s="83"/>
     </row>
     <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="86"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="85"/>
       <c r="J19" s="84"/>
       <c r="K19" s="84"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="89"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="88"/>
       <c r="P19" s="83"/>
     </row>
     <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="86"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="85"/>
       <c r="J20" s="84"/>
       <c r="K20" s="84"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="89"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="88"/>
       <c r="P20" s="83"/>
     </row>
     <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="86"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="85"/>
       <c r="I21" s="85"/>
       <c r="J21" s="84"/>
       <c r="K21" s="84"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="89"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="88"/>
       <c r="P21" s="83"/>
     </row>
     <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="86"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="85"/>
       <c r="I22" s="85"/>
       <c r="J22" s="84"/>
       <c r="K22" s="84"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="89"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="88"/>
       <c r="P22" s="83"/>
     </row>
     <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="96"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="86"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="85"/>
       <c r="I23" s="85"/>
       <c r="J23" s="84"/>
       <c r="K23" s="84"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="89"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="88"/>
       <c r="P23" s="83"/>
     </row>
     <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="96"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="86"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="85"/>
       <c r="I24" s="85"/>
       <c r="J24" s="84"/>
       <c r="K24" s="84"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="89"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="88"/>
       <c r="P24" s="83"/>
     </row>
     <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="96"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="86"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="85"/>
       <c r="I25" s="85"/>
       <c r="J25" s="84"/>
       <c r="K25" s="84"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="89"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="88"/>
       <c r="P25" s="83"/>
     </row>
     <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="96"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="86"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="85"/>
       <c r="I26" s="85"/>
       <c r="J26" s="84"/>
       <c r="K26" s="84"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="89"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="88"/>
       <c r="P26" s="83"/>
     </row>
     <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="96"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="86"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="85"/>
       <c r="I27" s="85"/>
       <c r="J27" s="84"/>
       <c r="K27" s="84"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="89"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="88"/>
       <c r="P27" s="83"/>
     </row>
     <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="96"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="86"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="85"/>
       <c r="I28" s="85"/>
       <c r="J28" s="84"/>
       <c r="K28" s="84"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="89"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="88"/>
       <c r="P28" s="83"/>
     </row>
     <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="96"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="86"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="85"/>
       <c r="I29" s="85"/>
       <c r="J29" s="84"/>
       <c r="K29" s="84"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="89"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="88"/>
       <c r="P29" s="83"/>
     </row>
     <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="96"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="86"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="85"/>
       <c r="I30" s="85"/>
       <c r="J30" s="84"/>
       <c r="K30" s="84"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="89"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="88"/>
       <c r="P30" s="83"/>
     </row>
     <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="96"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="86"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="85"/>
       <c r="I31" s="85"/>
       <c r="J31" s="84"/>
       <c r="K31" s="84"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="89"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="88"/>
       <c r="P31" s="83"/>
     </row>
     <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="96"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="86"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="85"/>
       <c r="I32" s="85"/>
       <c r="J32" s="84"/>
       <c r="K32" s="84"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="89"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="88"/>
       <c r="P32" s="83"/>
     </row>
     <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="96"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="86"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="85"/>
       <c r="I33" s="85"/>
       <c r="J33" s="84"/>
       <c r="K33" s="84"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="89"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="88"/>
       <c r="P33" s="83"/>
     </row>
     <row r="34" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="96"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="109"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
       <c r="J34" s="84"/>
       <c r="K34" s="84"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="89"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="88"/>
       <c r="P34" s="83"/>
     </row>
     <row r="35" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="96"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="86"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="85"/>
       <c r="I35" s="85"/>
       <c r="J35" s="84"/>
       <c r="K35" s="84"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="89"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="88"/>
       <c r="P35" s="83"/>
     </row>
     <row r="36" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="96"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="86"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="85"/>
       <c r="J36" s="84"/>
       <c r="K36" s="84"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="89"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="88"/>
       <c r="P36" s="83"/>
     </row>
     <row r="37" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="96"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="86"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="85"/>
       <c r="I37" s="85"/>
       <c r="J37" s="84"/>
       <c r="K37" s="84"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="89"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="88"/>
       <c r="P37" s="83"/>
     </row>
     <row r="38" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="96"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="86"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="85"/>
       <c r="I38" s="85"/>
       <c r="J38" s="84"/>
       <c r="K38" s="84"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="89"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="88"/>
       <c r="P38" s="83"/>
     </row>
     <row r="39" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="96"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="86"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="85"/>
       <c r="I39" s="85"/>
       <c r="J39" s="84"/>
       <c r="K39" s="84"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="89"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="88"/>
       <c r="P39" s="83"/>
     </row>
     <row r="40" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="96"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="86"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="85"/>
       <c r="I40" s="85"/>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="89"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="88"/>
       <c r="P40" s="83"/>
     </row>
     <row r="41" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="96"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="107"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="106"/>
       <c r="G41" s="82"/>
-      <c r="H41" s="86"/>
+      <c r="H41" s="85"/>
       <c r="I41" s="85"/>
       <c r="J41" s="84"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="89"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="88"/>
       <c r="P41" s="83"/>
     </row>
     <row r="42" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88"/>
+      <c r="A42" s="87"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="107"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="106"/>
       <c r="G42" s="82"/>
-      <c r="H42" s="86"/>
+      <c r="H42" s="85"/>
       <c r="I42" s="85"/>
       <c r="J42" s="84"/>
       <c r="K42" s="84"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="89"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="88"/>
       <c r="P42" s="83"/>
     </row>
     <row r="43" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="88"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="107"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="106"/>
       <c r="G43" s="82"/>
-      <c r="H43" s="86"/>
+      <c r="H43" s="85"/>
       <c r="I43" s="85"/>
       <c r="J43" s="84"/>
       <c r="K43" s="84"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="92"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="91"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="91"/>
     </row>
     <row r="44" spans="1:16" ht="0.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="88"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="107"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="106"/>
       <c r="G44" s="82"/>
-      <c r="H44" s="86"/>
+      <c r="H44" s="85"/>
       <c r="I44" s="85"/>
       <c r="J44" s="84"/>
       <c r="K44" s="84"/>
-      <c r="L44" s="218"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="92"/>
+      <c r="L44" s="213"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="91"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="91"/>
     </row>
     <row r="45" spans="1:16" ht="0.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="88"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="107"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="106"/>
       <c r="G45" s="82"/>
-      <c r="H45" s="86"/>
+      <c r="H45" s="85"/>
       <c r="I45" s="85"/>
       <c r="J45" s="84"/>
       <c r="K45" s="84"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="92"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="91"/>
     </row>
     <row r="46" spans="1:16" ht="0.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="88"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="107"/>
+      <c r="A46" s="87"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="106"/>
       <c r="G46" s="82"/>
-      <c r="H46" s="86"/>
+      <c r="H46" s="85"/>
       <c r="I46" s="85"/>
       <c r="J46" s="84"/>
       <c r="K46" s="84"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="92"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="91"/>
     </row>
     <row r="47" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="88"/>
+      <c r="A47" s="87"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="217"/>
-      <c r="F47" s="107"/>
+      <c r="C47" s="210"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="212"/>
+      <c r="F47" s="106"/>
       <c r="G47" s="82"/>
-      <c r="H47" s="86"/>
+      <c r="H47" s="85"/>
       <c r="I47" s="85"/>
       <c r="J47" s="84"/>
       <c r="K47" s="84"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="92"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="91"/>
     </row>
     <row r="48" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="96"/>
-      <c r="B48" s="211"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="107"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="206"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="106"/>
       <c r="G48" s="82"/>
-      <c r="H48" s="86"/>
+      <c r="H48" s="85"/>
       <c r="I48" s="84"/>
       <c r="J48" s="84"/>
       <c r="K48" s="84"/>
-      <c r="L48" s="91"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="92"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="91"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="91"/>
     </row>
     <row r="49" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="88"/>
-      <c r="B49" s="214"/>
-      <c r="C49" s="215"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="107"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="209"/>
+      <c r="C49" s="210"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="106"/>
       <c r="G49" s="82"/>
-      <c r="H49" s="86"/>
+      <c r="H49" s="85"/>
       <c r="I49" s="85"/>
       <c r="J49" s="84"/>
       <c r="K49" s="84"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="90"/>
-      <c r="N49" s="92"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="92"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="91"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="91"/>
     </row>
     <row r="50" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="88"/>
-      <c r="B50" s="211"/>
-      <c r="C50" s="215"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="107"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="206"/>
+      <c r="C50" s="210"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="106"/>
       <c r="G50" s="82"/>
-      <c r="H50" s="86"/>
+      <c r="H50" s="85"/>
       <c r="I50" s="85"/>
       <c r="J50" s="84"/>
       <c r="K50" s="84"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="92"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="92"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="91"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="91"/>
     </row>
     <row r="51" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="88"/>
-      <c r="B51" s="211"/>
-      <c r="C51" s="213"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="107"/>
+      <c r="A51" s="87"/>
+      <c r="B51" s="206"/>
+      <c r="C51" s="208"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="106"/>
       <c r="G51" s="82"/>
-      <c r="H51" s="86"/>
+      <c r="H51" s="85"/>
       <c r="I51" s="84"/>
       <c r="J51" s="84"/>
       <c r="K51" s="84"/>
-      <c r="L51" s="91"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="92"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="91"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="91"/>
     </row>
     <row r="52" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="88"/>
-      <c r="B52" s="214"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="107"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="209"/>
+      <c r="C52" s="208"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="106"/>
       <c r="G52" s="82"/>
-      <c r="H52" s="86"/>
+      <c r="H52" s="85"/>
       <c r="I52" s="84"/>
       <c r="J52" s="84"/>
       <c r="K52" s="84"/>
-      <c r="L52" s="91"/>
-      <c r="M52" s="90"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="89"/>
-      <c r="P52" s="92"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="91"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="91"/>
     </row>
     <row r="53" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="88"/>
-      <c r="B53" s="211"/>
-      <c r="C53" s="213"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="107"/>
+      <c r="A53" s="87"/>
+      <c r="B53" s="206"/>
+      <c r="C53" s="208"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="106"/>
       <c r="G53" s="82"/>
-      <c r="H53" s="86"/>
+      <c r="H53" s="85"/>
       <c r="I53" s="85"/>
       <c r="J53" s="84"/>
       <c r="K53" s="84"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="92"/>
-      <c r="O53" s="89"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="91"/>
+      <c r="O53" s="88"/>
       <c r="P53" s="83"/>
     </row>
     <row r="54" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="88"/>
-      <c r="B54" s="211"/>
-      <c r="C54" s="209"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="107"/>
+      <c r="A54" s="87"/>
+      <c r="B54" s="206"/>
+      <c r="C54" s="204"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="106"/>
       <c r="G54" s="82"/>
-      <c r="H54" s="86"/>
+      <c r="H54" s="85"/>
       <c r="I54" s="85"/>
       <c r="J54" s="84"/>
       <c r="K54" s="84"/>
-      <c r="L54" s="91"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="92"/>
-      <c r="O54" s="89"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="88"/>
       <c r="P54" s="83"/>
     </row>
     <row r="55" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="88"/>
-      <c r="B55" s="211"/>
-      <c r="C55" s="210"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="107"/>
+      <c r="A55" s="87"/>
+      <c r="B55" s="206"/>
+      <c r="C55" s="205"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="106"/>
       <c r="G55" s="82"/>
-      <c r="H55" s="86"/>
+      <c r="H55" s="85"/>
       <c r="I55" s="85"/>
       <c r="J55" s="84"/>
       <c r="K55" s="84"/>
-      <c r="L55" s="91"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="92"/>
-      <c r="O55" s="89"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="91"/>
+      <c r="O55" s="88"/>
       <c r="P55" s="83"/>
     </row>
     <row r="56" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="88"/>
-      <c r="B56" s="211"/>
-      <c r="C56" s="210"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="212"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="86"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="206"/>
+      <c r="C56" s="205"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="207"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="85"/>
       <c r="I56" s="85"/>
       <c r="J56" s="84"/>
       <c r="K56" s="84"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="92"/>
-      <c r="O56" s="89"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="91"/>
+      <c r="O56" s="88"/>
       <c r="P56" s="83"/>
     </row>
     <row r="57" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="88"/>
-      <c r="B57" s="211"/>
-      <c r="C57" s="210"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="107"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="206"/>
+      <c r="C57" s="205"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="106"/>
       <c r="G57" s="82"/>
-      <c r="H57" s="86"/>
+      <c r="H57" s="85"/>
       <c r="I57" s="85"/>
       <c r="J57" s="84"/>
       <c r="K57" s="84"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="92"/>
-      <c r="O57" s="89"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="91"/>
+      <c r="O57" s="88"/>
       <c r="P57" s="83"/>
     </row>
     <row r="58" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="88"/>
-      <c r="B58" s="203"/>
-      <c r="C58" s="209"/>
-      <c r="D58" s="208"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="107"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="198"/>
+      <c r="C58" s="204"/>
+      <c r="D58" s="203"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="106"/>
       <c r="G58" s="82"/>
-      <c r="H58" s="86"/>
+      <c r="H58" s="85"/>
       <c r="I58" s="85"/>
       <c r="J58" s="84"/>
       <c r="K58" s="84"/>
-      <c r="L58" s="91"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="92"/>
-      <c r="O58" s="89"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="91"/>
+      <c r="O58" s="88"/>
       <c r="P58" s="83"/>
     </row>
     <row r="59" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="88"/>
-      <c r="B59" s="207"/>
-      <c r="C59" s="202"/>
-      <c r="D59" s="205"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="107"/>
+      <c r="A59" s="87"/>
+      <c r="B59" s="202"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="200"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="106"/>
       <c r="G59" s="82"/>
-      <c r="H59" s="86"/>
+      <c r="H59" s="85"/>
       <c r="I59" s="85"/>
       <c r="J59" s="84"/>
       <c r="K59" s="84"/>
-      <c r="L59" s="91"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="92"/>
-      <c r="O59" s="89"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="89"/>
+      <c r="N59" s="91"/>
+      <c r="O59" s="88"/>
       <c r="P59" s="83"/>
     </row>
     <row r="60" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="88"/>
-      <c r="B60" s="203"/>
-      <c r="C60" s="202"/>
-      <c r="D60" s="201"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="107"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="198"/>
+      <c r="C60" s="197"/>
+      <c r="D60" s="196"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="106"/>
       <c r="G60" s="82"/>
-      <c r="H60" s="86"/>
+      <c r="H60" s="85"/>
       <c r="I60" s="85"/>
       <c r="J60" s="84"/>
       <c r="K60" s="84"/>
-      <c r="L60" s="91"/>
-      <c r="M60" s="90"/>
-      <c r="N60" s="92"/>
-      <c r="O60" s="89"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="91"/>
+      <c r="O60" s="88"/>
       <c r="P60" s="83"/>
     </row>
     <row r="61" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="88"/>
-      <c r="B61" s="203"/>
-      <c r="C61" s="202"/>
-      <c r="D61" s="201"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="107"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="198"/>
+      <c r="C61" s="197"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="106"/>
       <c r="G61" s="82"/>
-      <c r="H61" s="86"/>
+      <c r="H61" s="85"/>
       <c r="I61" s="85"/>
       <c r="J61" s="84"/>
       <c r="K61" s="84"/>
-      <c r="L61" s="91"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="92"/>
-      <c r="O61" s="89"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="89"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="88"/>
       <c r="P61" s="83"/>
     </row>
     <row r="62" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="88"/>
-      <c r="B62" s="203"/>
-      <c r="C62" s="202"/>
-      <c r="D62" s="201"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="107"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="198"/>
+      <c r="C62" s="197"/>
+      <c r="D62" s="196"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="106"/>
       <c r="G62" s="82"/>
-      <c r="H62" s="86"/>
+      <c r="H62" s="85"/>
       <c r="I62" s="85"/>
       <c r="J62" s="84"/>
       <c r="K62" s="84"/>
-      <c r="L62" s="91"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="92"/>
-      <c r="O62" s="89"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="91"/>
+      <c r="O62" s="88"/>
       <c r="P62" s="83"/>
     </row>
     <row r="63" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="88"/>
-      <c r="B63" s="203"/>
-      <c r="C63" s="202"/>
-      <c r="D63" s="201"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="107"/>
+      <c r="A63" s="87"/>
+      <c r="B63" s="198"/>
+      <c r="C63" s="197"/>
+      <c r="D63" s="196"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="106"/>
       <c r="G63" s="82"/>
-      <c r="H63" s="86"/>
+      <c r="H63" s="85"/>
       <c r="I63" s="85"/>
       <c r="J63" s="84"/>
       <c r="K63" s="84"/>
-      <c r="L63" s="91"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="92"/>
-      <c r="O63" s="89"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="91"/>
+      <c r="O63" s="88"/>
       <c r="P63" s="83"/>
     </row>
     <row r="64" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="88"/>
-      <c r="B64" s="203"/>
-      <c r="C64" s="202"/>
-      <c r="D64" s="201"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="107"/>
+      <c r="A64" s="87"/>
+      <c r="B64" s="198"/>
+      <c r="C64" s="197"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="106"/>
       <c r="G64" s="82"/>
-      <c r="H64" s="86"/>
+      <c r="H64" s="85"/>
       <c r="I64" s="85"/>
       <c r="J64" s="84"/>
       <c r="K64" s="84"/>
-      <c r="L64" s="91"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="92"/>
-      <c r="O64" s="89"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="91"/>
+      <c r="O64" s="88"/>
       <c r="P64" s="83"/>
     </row>
     <row r="65" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="88"/>
-      <c r="B65" s="206"/>
-      <c r="C65" s="202"/>
-      <c r="D65" s="201"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="107"/>
+      <c r="A65" s="87"/>
+      <c r="B65" s="201"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="196"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="106"/>
       <c r="G65" s="82"/>
-      <c r="H65" s="86"/>
+      <c r="H65" s="85"/>
       <c r="I65" s="85"/>
       <c r="J65" s="84"/>
       <c r="K65" s="84"/>
-      <c r="L65" s="91"/>
-      <c r="M65" s="90"/>
-      <c r="N65" s="92"/>
-      <c r="O65" s="89"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="91"/>
+      <c r="O65" s="88"/>
       <c r="P65" s="83"/>
     </row>
     <row r="66" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="88"/>
-      <c r="B66" s="203"/>
-      <c r="C66" s="202"/>
-      <c r="D66" s="201"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="107"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="198"/>
+      <c r="C66" s="197"/>
+      <c r="D66" s="196"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="106"/>
       <c r="G66" s="82"/>
-      <c r="H66" s="86"/>
+      <c r="H66" s="85"/>
       <c r="I66" s="85"/>
       <c r="J66" s="84"/>
       <c r="K66" s="84"/>
-      <c r="L66" s="91"/>
-      <c r="M66" s="90"/>
-      <c r="N66" s="92"/>
-      <c r="O66" s="89"/>
+      <c r="L66" s="90"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="91"/>
+      <c r="O66" s="88"/>
       <c r="P66" s="83"/>
     </row>
     <row r="67" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="88"/>
-      <c r="B67" s="203"/>
-      <c r="C67" s="202"/>
-      <c r="D67" s="201"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="107"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="198"/>
+      <c r="C67" s="197"/>
+      <c r="D67" s="196"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="106"/>
       <c r="G67" s="82"/>
-      <c r="H67" s="86"/>
+      <c r="H67" s="85"/>
       <c r="I67" s="85"/>
       <c r="J67" s="84"/>
       <c r="K67" s="84"/>
-      <c r="L67" s="91"/>
-      <c r="M67" s="90"/>
-      <c r="N67" s="92"/>
-      <c r="O67" s="89"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="91"/>
+      <c r="O67" s="88"/>
       <c r="P67" s="83"/>
     </row>
     <row r="68" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="88"/>
-      <c r="B68" s="203"/>
-      <c r="C68" s="202"/>
-      <c r="D68" s="205"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="107"/>
+      <c r="A68" s="87"/>
+      <c r="B68" s="198"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="200"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="106"/>
       <c r="G68" s="82"/>
-      <c r="H68" s="86"/>
+      <c r="H68" s="85"/>
       <c r="I68" s="85"/>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
-      <c r="L68" s="91"/>
-      <c r="M68" s="90"/>
-      <c r="N68" s="204"/>
-      <c r="O68" s="89"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="89"/>
+      <c r="N68" s="199"/>
+      <c r="O68" s="88"/>
       <c r="P68" s="83"/>
     </row>
     <row r="69" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="88"/>
-      <c r="B69" s="203"/>
-      <c r="C69" s="202"/>
-      <c r="D69" s="201"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="107"/>
+      <c r="A69" s="87"/>
+      <c r="B69" s="198"/>
+      <c r="C69" s="197"/>
+      <c r="D69" s="196"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="106"/>
       <c r="G69" s="82"/>
-      <c r="H69" s="86"/>
+      <c r="H69" s="85"/>
       <c r="I69" s="85"/>
       <c r="J69" s="84"/>
       <c r="K69" s="84"/>
       <c r="L69" s="84"/>
-      <c r="M69" s="200"/>
-      <c r="N69" s="199"/>
-      <c r="O69" s="198"/>
+      <c r="M69" s="195"/>
+      <c r="N69" s="194"/>
+      <c r="O69" s="193"/>
       <c r="P69" s="83"/>
     </row>
     <row r="70" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="193"/>
-      <c r="B70" s="192"/>
-      <c r="C70" s="197"/>
-      <c r="D70" s="190"/>
-      <c r="E70" s="189"/>
-      <c r="F70" s="107"/>
+      <c r="A70" s="188"/>
+      <c r="B70" s="187"/>
+      <c r="C70" s="192"/>
+      <c r="D70" s="185"/>
+      <c r="E70" s="184"/>
+      <c r="F70" s="106"/>
       <c r="G70" s="82"/>
-      <c r="H70" s="187"/>
-      <c r="I70" s="186"/>
-      <c r="J70" s="184"/>
-      <c r="K70" s="185"/>
-      <c r="L70" s="184"/>
-      <c r="M70" s="183"/>
-      <c r="N70" s="196"/>
-      <c r="O70" s="195"/>
-      <c r="P70" s="194"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="182"/>
+      <c r="J70" s="180"/>
+      <c r="K70" s="181"/>
+      <c r="L70" s="180"/>
+      <c r="M70" s="179"/>
+      <c r="N70" s="191"/>
+      <c r="O70" s="190"/>
+      <c r="P70" s="189"/>
     </row>
     <row r="71" spans="1:16" ht="0.95" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="193"/>
-      <c r="B71" s="192"/>
-      <c r="C71" s="191"/>
-      <c r="D71" s="190"/>
-      <c r="E71" s="189"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="188"/>
-      <c r="H71" s="187"/>
-      <c r="I71" s="186"/>
-      <c r="J71" s="184"/>
-      <c r="K71" s="185"/>
-      <c r="L71" s="184"/>
-      <c r="M71" s="183"/>
-      <c r="N71" s="182"/>
-      <c r="O71" s="181"/>
-      <c r="P71" s="180"/>
+      <c r="A71" s="188"/>
+      <c r="B71" s="187"/>
+      <c r="C71" s="186"/>
+      <c r="D71" s="185"/>
+      <c r="E71" s="184"/>
+      <c r="F71" s="106"/>
+      <c r="G71" s="183"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="182"/>
+      <c r="J71" s="180"/>
+      <c r="K71" s="181"/>
+      <c r="L71" s="180"/>
+      <c r="M71" s="179"/>
+      <c r="N71" s="178"/>
+      <c r="O71" s="177"/>
+      <c r="P71" s="176"/>
     </row>
     <row r="72" spans="1:16" ht="0.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="179"/>
-      <c r="B72" s="178"/>
-      <c r="C72" s="177"/>
-      <c r="D72" s="176"/>
-      <c r="E72" s="175"/>
-      <c r="F72" s="107"/>
-      <c r="G72" s="174"/>
-      <c r="H72" s="173"/>
-      <c r="I72" s="172"/>
-      <c r="J72" s="171"/>
-      <c r="K72" s="170"/>
-      <c r="L72" s="171"/>
-      <c r="M72" s="170"/>
-      <c r="N72" s="169"/>
-      <c r="O72" s="168"/>
-      <c r="P72" s="167"/>
+      <c r="A72" s="175"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="173"/>
+      <c r="D72" s="172"/>
+      <c r="E72" s="171"/>
+      <c r="F72" s="106"/>
+      <c r="G72" s="170"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="169"/>
+      <c r="J72" s="168"/>
+      <c r="K72" s="167"/>
+      <c r="L72" s="168"/>
+      <c r="M72" s="167"/>
+      <c r="N72" s="166"/>
+      <c r="O72" s="165"/>
+      <c r="P72" s="164"/>
     </row>
     <row r="73" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="81"/>
@@ -3993,30 +3948,30 @@
       <c r="C73" s="80"/>
       <c r="D73" s="80"/>
       <c r="E73" s="80"/>
-      <c r="F73" s="107"/>
+      <c r="F73" s="106"/>
       <c r="G73" s="79"/>
       <c r="H73" s="78">
         <f>SUM(H17:H72)</f>
         <v>0</v>
       </c>
       <c r="I73" s="78">
-        <f>SUM(I17:I72)</f>
+        <f t="shared" ref="I73:M73" si="0">SUM(I17:I72)</f>
         <v>0</v>
       </c>
       <c r="J73" s="78">
-        <f>SUM(J17:J72)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K73" s="77">
-        <f>SUM(K17:K72)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L73" s="77">
-        <f>SUM(L17:L72)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M73" s="77">
-        <f>SUM(M17:M72)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N73" s="76"/>
@@ -4321,30 +4276,30 @@
       <c r="K86" s="19"/>
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
-      <c r="N86" s="221" t="s">
+      <c r="N86" s="276" t="s">
         <v>10</v>
       </c>
-      <c r="O86" s="222"/>
+      <c r="O86" s="277"/>
       <c r="P86" s="18">
         <f>SUM(P79:P85)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="223" t="s">
+      <c r="A87" s="278" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="224"/>
-      <c r="C87" s="224"/>
+      <c r="B87" s="279"/>
+      <c r="C87" s="279"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
-      <c r="I87" s="225" t="s">
+      <c r="I87" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="J87" s="225"/>
+      <c r="J87" s="280"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
@@ -4353,85 +4308,82 @@
       <c r="P87" s="10"/>
     </row>
     <row r="88" spans="1:18" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A88" s="226" t="s">
+      <c r="A88" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="227"/>
-      <c r="C88" s="227"/>
+      <c r="B88" s="282"/>
+      <c r="C88" s="282"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
-      <c r="J88" s="228" t="s">
+      <c r="J88" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="K88" s="228"/>
-      <c r="L88" s="228"/>
-      <c r="M88" s="228"/>
+      <c r="K88" s="283"/>
+      <c r="L88" s="283"/>
+      <c r="M88" s="283"/>
       <c r="N88" s="14"/>
       <c r="O88" s="13"/>
       <c r="P88" s="10"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="229" t="s">
+      <c r="A89" s="284" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="230"/>
-      <c r="C89" s="230"/>
+      <c r="B89" s="285"/>
+      <c r="C89" s="285"/>
       <c r="D89" s="12"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
-      <c r="J89" s="230" t="s">
+      <c r="J89" s="285" t="s">
         <v>0</v>
       </c>
-      <c r="K89" s="230"/>
-      <c r="L89" s="230"/>
-      <c r="M89" s="230"/>
+      <c r="K89" s="285"/>
+      <c r="L89" s="285"/>
+      <c r="M89" s="285"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="10"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="219" t="s">
+      <c r="A90" s="274" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="220"/>
-      <c r="C90" s="220"/>
+      <c r="B90" s="275"/>
+      <c r="C90" s="275"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="220" t="s">
+      <c r="H90" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="220"/>
-      <c r="J90" s="220"/>
-      <c r="K90" s="220"/>
-      <c r="L90" s="220"/>
-      <c r="M90" s="220"/>
+      <c r="I90" s="275"/>
+      <c r="J90" s="275"/>
+      <c r="K90" s="275"/>
+      <c r="L90" s="275"/>
+      <c r="M90" s="275"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
       <c r="P90" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="H90:M90"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="J89:M89"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="H9:P10"/>
     <mergeCell ref="D10:F10"/>
@@ -4448,15 +4400,18 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="H90:M90"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.59055118110236227" top="0.39370078740157483" bottom="0.12" header="0.31496062992125984" footer="1.32"/>
